--- a/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,98</t>
+          <t>0,0; 7,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-36,25; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,5</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-36,25; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,73</t>
+          <t>0,29; 2,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,72</t>
+          <t>0,4; 3,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,55</t>
+          <t>-2,23; 1,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,81</t>
+          <t>0,29; 2,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,86</t>
+          <t>0,4; 3,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,59</t>
+          <t>-2,25; 1,45</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,64</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,32</t>
+          <t>-1,62; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,28</t>
+          <t>0,0; 9,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,51</t>
+          <t>-1,62; 5,01</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,06</t>
+          <t>-0,96; 1,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,07</t>
+          <t>-1,47; 1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,22; 2,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,12</t>
+          <t>-0,96; 2,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,08</t>
+          <t>-1,48; 1,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,61</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,57</t>
+          <t>0,29; 2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,39</t>
+          <t>0,4; 3,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,64</t>
+          <t>0,29; 2,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,5</t>
+          <t>0,4; 3,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,35</t>
+          <t>0,0; 8,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,11</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,13</t>
+          <t>0,21; 2,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,96</t>
+          <t>-0,86; 1,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,17</t>
+          <t>0,21; 2,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,01</t>
+          <t>-0,85; 2,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>0,0; 5,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,65</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 0,0</t>
+          <t>-25,61; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-4,19; 0,0</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,71</t>
+          <t>0,29; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,36</t>
+          <t>0,4; 3,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,42</t>
+          <t>-2,17; 1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,78</t>
+          <t>0,29; 2,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,47</t>
+          <t>0,4; 3,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,45</t>
+          <t>-2,19; 1,59</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>0,0; 7,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,78</t>
+          <t>-1,63; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,26</t>
+          <t>0,0; 8,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 5,01</t>
+          <t>-1,64; 4,51</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,02</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,98</t>
+          <t>-0,97; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,2</t>
+          <t>-1,44; 1,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,02</t>
+          <t>-0,98; 2,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,22</t>
+          <t>-1,44; 1,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-0,65%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,82; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-4,82; 0,0</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-0,31%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,55</t>
+          <t>-1,86; 1,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,59</t>
+          <t>-1,86; 1,52</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,32</t>
+          <t>-1,64; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,51</t>
+          <t>-1,64; 4,15</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,07</t>
+          <t>-1,42; 0,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,08</t>
+          <t>-1,43; 1,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,98</t>
+          <t>0,0; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-29,77; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,5</t>
+          <t>0,0; 7,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 0,0</t>
+          <t>-29,77; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,73</t>
+          <t>0,29; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,72</t>
+          <t>0,4; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,49</t>
+          <t>-1,95; 1,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,81</t>
+          <t>0,29; 2,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,86</t>
+          <t>0,4; 3,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,52</t>
+          <t>-1,97; 1,52</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,64</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,03</t>
+          <t>-1,64; 4,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,28</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,15</t>
+          <t>-1,64; 4,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,06</t>
+          <t>-1,03; 1,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,99</t>
+          <t>-1,42; 1,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,12</t>
+          <t>-1,03; 1,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,01</t>
+          <t>-1,42; 1,1</t>
         </is>
       </c>
     </row>
